--- a/Source/arkD - 副本.xlsx
+++ b/Source/arkD - 副本.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Arknights\ArknightsIDcard-Ebranch\ArknightsIDCard\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAEF3E3-F934-4C41-977F-79E0699C87D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{05AF7F78-DF39-446C-B1A9-C9994B7B3EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-5060" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$260</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="242">
   <si>
     <t>陈</t>
   </si>
@@ -853,10 +853,28 @@
     <t>AFT-Δ</t>
   </si>
   <si>
-    <t>2024.12.30</t>
-  </si>
-  <si>
     <t>ISW-A</t>
+  </si>
+  <si>
+    <t>HAM-X</t>
+  </si>
+  <si>
+    <t>RA-A</t>
+  </si>
+  <si>
+    <t>余</t>
+  </si>
+  <si>
+    <t>BLA-D</t>
+  </si>
+  <si>
+    <t>烛煌</t>
+  </si>
+  <si>
+    <t>PUS-Y</t>
+  </si>
+  <si>
+    <t>2025.02.13</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1302,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
@@ -1329,7 +1347,7 @@
         <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1443,11 +1461,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <pane ySplit="3" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1645,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1669,7 +1687,7 @@
         <v>204</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>108</v>
@@ -2116,7 +2134,7 @@
         <v>199</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>108</v>
@@ -2192,7 +2210,7 @@
         <v>206</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>105</v>
@@ -2331,6 +2349,15 @@
       <c r="I24" t="s">
         <v>109</v>
       </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
@@ -2592,7 +2619,7 @@
         <v>231</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>105</v>
@@ -2814,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s">
         <v>199</v>
@@ -2986,7 +3013,7 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3080,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="J44" t="s">
         <v>87</v>
@@ -3094,13 +3121,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3118,10 +3145,10 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -3132,13 +3159,13 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3159,18 +3186,18 @@
         <v>57</v>
       </c>
       <c r="J46" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -3197,24 +3224,24 @@
         <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3235,24 +3262,24 @@
         <v>57</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3270,27 +3297,18 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" t="s">
-        <v>90</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3311,24 +3329,24 @@
         <v>57</v>
       </c>
       <c r="J50" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3346,13 +3364,13 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J51" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>105</v>
@@ -3360,13 +3378,13 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3387,24 +3405,24 @@
         <v>57</v>
       </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3422,13 +3440,13 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J53" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>105</v>
@@ -3436,13 +3454,13 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3463,10 +3481,10 @@
         <v>57</v>
       </c>
       <c r="J54" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>105</v>
@@ -3474,13 +3492,13 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3504,7 +3522,7 @@
         <v>126</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>105</v>
@@ -3512,13 +3530,13 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3539,24 +3557,24 @@
         <v>57</v>
       </c>
       <c r="J56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K56">
         <v>3</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3577,10 +3595,10 @@
         <v>57</v>
       </c>
       <c r="J57" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>105</v>
@@ -3588,13 +3606,13 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3612,18 +3630,27 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>109</v>
+        <v>57</v>
+      </c>
+      <c r="J58" t="s">
+        <v>214</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3641,10 +3668,10 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="J59" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -3655,13 +3682,13 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3679,27 +3706,27 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J60" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="K60">
         <v>3</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3719,25 +3746,16 @@
       <c r="I61" t="s">
         <v>109</v>
       </c>
-      <c r="J61" t="s">
-        <v>208</v>
-      </c>
-      <c r="K61">
-        <v>3</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3755,10 +3773,10 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3769,13 +3787,13 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3793,10 +3811,10 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J63" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -3807,13 +3825,13 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3831,10 +3849,10 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="J64" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -3845,13 +3863,13 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3869,13 +3887,13 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J65" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>105</v>
@@ -3883,13 +3901,13 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3910,10 +3928,10 @@
         <v>57</v>
       </c>
       <c r="J66" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>105</v>
@@ -3921,7 +3939,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -3945,10 +3963,10 @@
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -3959,7 +3977,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -3983,13 +4001,13 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J68" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68" s="8" t="s">
         <v>105</v>
@@ -3997,7 +4015,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4021,21 +4039,21 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4059,10 +4077,10 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="J70" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -4073,13 +4091,13 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -4100,18 +4118,18 @@
         <v>57</v>
       </c>
       <c r="J71" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4135,27 +4153,27 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="J72" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4173,27 +4191,27 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="J73" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -4214,24 +4232,24 @@
         <v>57</v>
       </c>
       <c r="J74" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="K74">
         <v>3</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4251,16 +4269,25 @@
       <c r="I75" t="s">
         <v>109</v>
       </c>
+      <c r="J75" t="s">
+        <v>212</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4278,21 +4305,21 @@
         <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="J76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4319,24 +4346,24 @@
         <v>57</v>
       </c>
       <c r="J77" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="K77">
         <v>3</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="B78">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -4354,27 +4381,18 @@
         <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>57</v>
-      </c>
-      <c r="J78" t="s">
-        <v>95</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -4392,27 +4410,27 @@
         <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J79" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -4430,13 +4448,13 @@
         <v>10</v>
       </c>
       <c r="I80" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J80" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L80" s="8" t="s">
         <v>107</v>
@@ -4444,7 +4462,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4471,18 +4489,18 @@
         <v>57</v>
       </c>
       <c r="J81" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4506,10 +4524,10 @@
         <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J82" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K82">
         <v>3</v>
@@ -4520,13 +4538,13 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4547,24 +4565,24 @@
         <v>57</v>
       </c>
       <c r="J83" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -4582,27 +4600,18 @@
         <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>57</v>
-      </c>
-      <c r="J84" t="s">
-        <v>143</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -4620,10 +4629,10 @@
         <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J85" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="K85">
         <v>3</v>
@@ -4634,7 +4643,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4658,10 +4667,10 @@
         <v>10</v>
       </c>
       <c r="I86" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="J86" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -4672,7 +4681,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4696,27 +4705,27 @@
         <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J87" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -4737,18 +4746,18 @@
         <v>57</v>
       </c>
       <c r="J88" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -4772,27 +4781,27 @@
         <v>10</v>
       </c>
       <c r="I89" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J89" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="K89">
         <v>1</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B90">
         <v>6</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -4813,24 +4822,24 @@
         <v>57</v>
       </c>
       <c r="J90" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="K90">
         <v>3</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="B91">
         <v>6</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -4851,18 +4860,18 @@
         <v>58</v>
       </c>
       <c r="J91" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -4886,21 +4895,21 @@
         <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="J92" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -4924,13 +4933,13 @@
         <v>10</v>
       </c>
       <c r="I93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L93" s="8" t="s">
         <v>106</v>
@@ -4938,7 +4947,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -4962,27 +4971,27 @@
         <v>10</v>
       </c>
       <c r="I94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J94" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="K94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="B95">
         <v>6</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -5000,21 +5009,21 @@
         <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J95" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -5038,27 +5047,27 @@
         <v>10</v>
       </c>
       <c r="I96" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="J96" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B97">
         <v>6</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -5076,27 +5085,27 @@
         <v>10</v>
       </c>
       <c r="I97" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J97" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="K97">
         <v>3</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B98">
         <v>6</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -5117,7 +5126,7 @@
         <v>58</v>
       </c>
       <c r="J98" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -5128,13 +5137,13 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="B99">
         <v>6</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -5152,13 +5161,13 @@
         <v>10</v>
       </c>
       <c r="I99" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="J99" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L99" s="8" t="s">
         <v>106</v>
@@ -5166,7 +5175,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -5190,10 +5199,10 @@
         <v>10</v>
       </c>
       <c r="I100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J100" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="K100">
         <v>3</v>
@@ -5204,7 +5213,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="B101">
         <v>6</v>
@@ -5231,18 +5240,18 @@
         <v>57</v>
       </c>
       <c r="J101" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -5266,10 +5275,10 @@
         <v>10</v>
       </c>
       <c r="I102" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="J102" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="K102">
         <v>3</v>
@@ -5280,7 +5289,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -5304,10 +5313,10 @@
         <v>10</v>
       </c>
       <c r="I103" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J103" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="K103">
         <v>3</v>
@@ -5318,7 +5327,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -5342,27 +5351,27 @@
         <v>10</v>
       </c>
       <c r="I104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J104" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="K104">
         <v>3</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="B105">
         <v>6</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -5383,24 +5392,24 @@
         <v>58</v>
       </c>
       <c r="J105" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="B106">
         <v>6</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -5418,13 +5427,13 @@
         <v>10</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="J106" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>106</v>
@@ -5432,13 +5441,13 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="B107">
         <v>6</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -5459,10 +5468,10 @@
         <v>57</v>
       </c>
       <c r="J107" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L107" s="8" t="s">
         <v>106</v>
@@ -5470,13 +5479,13 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="B108">
         <v>6</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -5497,18 +5506,18 @@
         <v>57</v>
       </c>
       <c r="J108" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="B109">
         <v>6</v>
@@ -5532,21 +5541,21 @@
         <v>10</v>
       </c>
       <c r="I109" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="J109" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="K109">
         <v>3</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -5573,24 +5582,24 @@
         <v>109</v>
       </c>
       <c r="J110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B111">
         <v>6</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -5611,84 +5620,426 @@
         <v>57</v>
       </c>
       <c r="J111" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>90</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <v>10</v>
+      </c>
+      <c r="H112">
+        <v>10</v>
+      </c>
+      <c r="I112" t="s">
+        <v>58</v>
+      </c>
+      <c r="J112" t="s">
+        <v>103</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>90</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <v>10</v>
+      </c>
+      <c r="H113">
+        <v>10</v>
+      </c>
+      <c r="I113" t="s">
+        <v>57</v>
+      </c>
+      <c r="J113" t="s">
+        <v>102</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>90</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114">
+        <v>10</v>
+      </c>
+      <c r="H114">
+        <v>10</v>
+      </c>
+      <c r="I114" t="s">
+        <v>58</v>
+      </c>
+      <c r="J114" t="s">
+        <v>234</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>90</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
+        <v>10</v>
+      </c>
+      <c r="H115">
+        <v>10</v>
+      </c>
+      <c r="I115" t="s">
+        <v>57</v>
+      </c>
+      <c r="J115" t="s">
+        <v>177</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>90</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116">
+        <v>10</v>
+      </c>
+      <c r="H116">
+        <v>10</v>
+      </c>
+      <c r="I116" t="s">
+        <v>57</v>
+      </c>
+      <c r="J116" t="s">
+        <v>177</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>90</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>10</v>
+      </c>
+      <c r="H117">
+        <v>10</v>
+      </c>
+      <c r="I117" t="s">
+        <v>109</v>
+      </c>
+      <c r="J117" t="s">
+        <v>102</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" t="s">
+        <v>224</v>
+      </c>
+      <c r="B118">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>6</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>90</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>10</v>
+      </c>
+      <c r="H118">
+        <v>10</v>
+      </c>
+      <c r="I118" t="s">
+        <v>109</v>
+      </c>
+      <c r="J118" t="s">
+        <v>102</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>90</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+      <c r="G119">
+        <v>10</v>
+      </c>
+      <c r="H119">
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
+        <v>57</v>
+      </c>
+      <c r="J119" t="s">
+        <v>132</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" t="s">
         <v>37</v>
       </c>
-      <c r="B112">
-        <v>6</v>
-      </c>
-      <c r="C112">
-        <v>6</v>
-      </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112">
-        <v>90</v>
-      </c>
-      <c r="F112">
-        <v>10</v>
-      </c>
-      <c r="G112">
-        <v>10</v>
-      </c>
-      <c r="H112">
-        <v>10</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>90</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120">
+        <v>10</v>
+      </c>
+      <c r="H120">
+        <v>10</v>
+      </c>
+      <c r="I120" t="s">
         <v>57</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J120" t="s">
         <v>158</v>
       </c>
-      <c r="K112">
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>90</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121">
+        <v>10</v>
+      </c>
+      <c r="H121">
+        <v>10</v>
+      </c>
+      <c r="I121" t="s">
+        <v>58</v>
+      </c>
+      <c r="J121" t="s">
+        <v>240</v>
+      </c>
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" t="s">
+        <v>225</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+      <c r="C122">
         <v>1</v>
       </c>
-      <c r="L112" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" t="s">
-        <v>225</v>
-      </c>
-      <c r="B113">
-        <v>6</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113">
-        <v>90</v>
-      </c>
-      <c r="F113">
-        <v>10</v>
-      </c>
-      <c r="G113">
-        <v>10</v>
-      </c>
-      <c r="H113">
-        <v>10</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>90</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122">
+        <v>10</v>
+      </c>
+      <c r="H122">
+        <v>10</v>
+      </c>
+      <c r="I122" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L251" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L260" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -5700,20 +6051,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I260:I287" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I269:I296" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L293:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L302:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L292" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L301" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I259" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I268" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">
